--- a/Luban/ExcelConfig/Datas/localization_ability_patch.xlsx
+++ b/Luban/ExcelConfig/Datas/localization_ability_patch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>alias</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <t>##type</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -72,6 +66,39 @@
   </si>
   <si>
     <t>damage up</t>
+  </si>
+  <si>
+    <t>劈砍补丁1</t>
+  </si>
+  <si>
+    <t>劈砍补丁2</t>
+  </si>
+  <si>
+    <t>劈砍补丁3</t>
+  </si>
+  <si>
+    <t>劈砍补丁大1</t>
+  </si>
+  <si>
+    <t>大风车加Dura</t>
+  </si>
+  <si>
+    <t>大风车加伤</t>
+  </si>
+  <si>
+    <t>大风车冷却缩减</t>
+  </si>
+  <si>
+    <t>大风车加范围</t>
+  </si>
+  <si>
+    <t>大风车补丁1</t>
+  </si>
+  <si>
+    <t>大风车补丁2</t>
+  </si>
+  <si>
+    <t>大风车补丁3</t>
   </si>
 </sst>
 </file>
@@ -693,16 +720,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,149 +1049,223 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.58333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.41666666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.4166666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.0833333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.0833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.4166666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.4166666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="11" max="14" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.0833333333333" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.1666666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14.0833333333333" style="2" customWidth="1"/>
-    <col min="19" max="19" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.83333333333333" style="2" customWidth="1"/>
-    <col min="21" max="21" width="9.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.66666666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="8.08333333333333" style="2" customWidth="1"/>
-    <col min="24" max="25" width="10.9166666666667" style="2" customWidth="1"/>
-    <col min="26" max="26" width="11.4166666666667" style="2" customWidth="1"/>
-    <col min="27" max="27" width="15.9166666666667" style="2" customWidth="1"/>
-    <col min="28" max="28" width="13.8333333333333" style="2" customWidth="1"/>
-    <col min="29" max="29" width="15.8333333333333" style="2" customWidth="1"/>
-    <col min="30" max="30" width="11.0833333333333" style="2" customWidth="1"/>
-    <col min="31" max="34" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="35" max="35" width="9.83333333333333" style="2" customWidth="1"/>
-    <col min="36" max="36" width="8.75" style="2" customWidth="1"/>
-    <col min="37" max="37" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="38" max="38" width="9.83333333333333" style="2" customWidth="1"/>
-    <col min="39" max="39" width="9.25" style="2" customWidth="1"/>
-    <col min="40" max="40" width="11.8333333333333" style="2" customWidth="1"/>
-    <col min="41" max="41" width="9.41666666666667" style="2" customWidth="1"/>
-    <col min="42" max="42" width="13.5833333333333" style="2" customWidth="1"/>
-    <col min="43" max="43" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="13.4166666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.0833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.0833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.4166666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.4166666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.3333333333333" style="2" customWidth="1"/>
+    <col min="10" max="13" width="10.6666666666667" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.0833333333333" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.1666666666667" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.0833333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.83333333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.66666666666667" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.08333333333333" style="2" customWidth="1"/>
+    <col min="23" max="24" width="10.9166666666667" style="2" customWidth="1"/>
+    <col min="25" max="25" width="11.4166666666667" style="2" customWidth="1"/>
+    <col min="26" max="26" width="15.9166666666667" style="2" customWidth="1"/>
+    <col min="27" max="27" width="13.8333333333333" style="2" customWidth="1"/>
+    <col min="28" max="28" width="15.8333333333333" style="2" customWidth="1"/>
+    <col min="29" max="29" width="11.0833333333333" style="2" customWidth="1"/>
+    <col min="30" max="33" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="34" max="34" width="9.83333333333333" style="2" customWidth="1"/>
+    <col min="35" max="35" width="8.75" style="2" customWidth="1"/>
+    <col min="36" max="36" width="11.3333333333333" style="2" customWidth="1"/>
+    <col min="37" max="37" width="9.83333333333333" style="2" customWidth="1"/>
+    <col min="38" max="38" width="9.25" style="2" customWidth="1"/>
+    <col min="39" max="39" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="40" max="40" width="9.41666666666667" style="2" customWidth="1"/>
+    <col min="41" max="41" width="13.5833333333333" style="2" customWidth="1"/>
+    <col min="42" max="42" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:2">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="3">
-        <v>10001</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
